--- a/Time_series_prediction/lib/forecast/Monthly static.xlsx
+++ b/Time_series_prediction/lib/forecast/Monthly static.xlsx
@@ -3444,9 +3444,9 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100945EF9A1BCA5B84A8AFD9AE35FFEDA47" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e70e0ca8196889a8d82f242c2455e043">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f7f52dc-933a-4178-88ed-8383ee03bdbe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bd549e1715114582f0adad4ac45e7e6" ns2:_="">
-    <xsd:import namespace="7f7f52dc-933a-4178-88ed-8383ee03bdbe"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BCC0008E6C8924B83A315609E0B53D6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="322bc4fbf9d36dfd2712034ebe857496">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20487937-60ba-4b3d-a535-6a251771d29b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1026f061089ba26c744e1d99cd35589b" ns2:_="">
+    <xsd:import namespace="20487937-60ba-4b3d-a535-6a251771d29b"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3455,14 +3455,6 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3470,7 +3462,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f7f52dc-933a-4178-88ed-8383ee03bdbe" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20487937-60ba-4b3d-a535-6a251771d29b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3481,50 +3473,6 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3646,7 +3594,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C305F9-2404-4AE8-89C9-51208CF4A649}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D2B190-D157-42E7-81A3-E1F417DA1D73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="20487937-60ba-4b3d-a535-6a251771d29b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
